--- a/ResultadosPruebas.xlsx
+++ b/ResultadosPruebas.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -582,9 +582,29 @@
         <v>Pasado</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10">
+        <v>-1</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Datos incorrectos</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Datos incorrectos</v>
+      </c>
+      <c r="F10" t="str">
+        <v>Pasado</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F10"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/ResultadosPruebas.xlsx
+++ b/ResultadosPruebas.xlsx
@@ -1,55 +1,98 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="ResultadosPruebas" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="ResultadosPruebas" state="visible" r:id="rId4"/>
   </sheets>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
+  <si>
+    <t>Lado1</t>
+  </si>
+  <si>
+    <t>Lado2</t>
+  </si>
+  <si>
+    <t>Lado3</t>
+  </si>
+  <si>
+    <t>Resultado Obtenido</t>
+  </si>
+  <si>
+    <t>Resultado Esperado</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Equilátero</t>
+  </si>
+  <si>
+    <t>Datos incorrectos</t>
+  </si>
+  <si>
+    <t>Fallado</t>
+  </si>
+  <si>
+    <t>Pasado</t>
+  </si>
+  <si>
+    <t>Isósceles</t>
+  </si>
+  <si>
+    <t>Escaleno</t>
+  </si>
+  <si>
+    <t>No es triángulo</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c1</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DA9694"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="D8E4BC"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -64,14 +107,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,215 +449,217 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="3" width="10" customWidth="1"/>
+    <col min="4" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Lado1</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Lado2</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Lado3</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Resultado_Obtenido</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Resultado_Esperado</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Estado</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="B2" s="1">
         <v>0</v>
       </c>
-      <c r="D2" t="str">
-        <v>Datos incorrectos</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Datos incorrectos</v>
-      </c>
-      <c r="F2" t="str">
-        <v>Pasado</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="str">
-        <v>Equilátero</v>
-      </c>
-      <c r="E3" t="str">
-        <v>Equilátero</v>
-      </c>
-      <c r="F3" t="str">
-        <v>Pasado</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="D4" t="str">
-        <v>Isósceles</v>
-      </c>
-      <c r="E4" t="str">
-        <v>Isósceles</v>
-      </c>
-      <c r="F4" t="str">
-        <v>Pasado</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>5</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>6</v>
       </c>
-      <c r="D5" t="str">
-        <v>Escaleno</v>
-      </c>
-      <c r="E5" t="str">
-        <v>Escaleno</v>
-      </c>
-      <c r="F5" t="str">
-        <v>Pasado</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
         <v>3</v>
       </c>
-      <c r="D6" t="str">
-        <v>No es triángulo</v>
-      </c>
-      <c r="E6" t="str">
-        <v>No es triángulo</v>
-      </c>
-      <c r="F6" t="str">
-        <v>Pasado</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>20</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>1</v>
       </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" t="str">
-        <v>No es triángulo</v>
-      </c>
-      <c r="E7" t="str">
-        <v>No es triángulo</v>
-      </c>
-      <c r="F7" t="str">
-        <v>Pasado</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v/>
-      </c>
-      <c r="B8" t="str">
-        <v/>
-      </c>
-      <c r="C8" t="str">
-        <v/>
-      </c>
-      <c r="D8" t="str">
-        <v>Datos incorrectos</v>
-      </c>
-      <c r="E8" t="str">
-        <v>Datos incorrectos</v>
-      </c>
-      <c r="F8" t="str">
-        <v>Pasado</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>a</v>
-      </c>
-      <c r="B9" t="str">
-        <v>b</v>
-      </c>
-      <c r="C9" t="str">
-        <v>c1</v>
-      </c>
-      <c r="D9" t="str">
-        <v>Datos incorrectos</v>
-      </c>
-      <c r="E9" t="str">
-        <v>Datos incorrectos</v>
-      </c>
-      <c r="F9" t="str">
-        <v>Pasado</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>-1</v>
       </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10" t="str">
-        <v>Datos incorrectos</v>
-      </c>
-      <c r="E10" t="str">
-        <v>Datos incorrectos</v>
-      </c>
-      <c r="F10" t="str">
-        <v>Pasado</v>
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F10"/>
-  </ignoredErrors>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>